--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +527,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +543,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,9 +619,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>14,92%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>14,63%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>29,21%</t>
         </is>
@@ -724,62 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,45; 11,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 11,28</t>
+          <t>6,13; 9,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 9,9</t>
+          <t>17,37; 23,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,66; 23,94</t>
+          <t>16,97; 21,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>17,13; 22,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,98; 21,32</t>
+          <t>32,53; 38,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,52</t>
+          <t>13,33; 16,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,81; 37,9</t>
+          <t>12,87; 16,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>13,44; 16,73</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>12,87; 16,4</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>27,16; 31,43</t>
+          <t>27,12; 31,51</t>
         </is>
       </c>
     </row>
@@ -796,60 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>6,81%</t>
         </is>
@@ -864,62 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,88; 1,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,86</t>
+          <t>1,23; 2,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,38</t>
+          <t>3,3; 5,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,78</t>
+          <t>2,72; 4,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,28; 6,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,66</t>
+          <t>6,48; 10,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,34</t>
+          <t>1,89; 3,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 10,34</t>
+          <t>2,9; 4,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 2,94</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 4,08</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>5,53; 7,74</t>
+          <t>5,42; 7,83</t>
         </is>
       </c>
     </row>
@@ -936,60 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>5,08%</t>
         </is>
@@ -1004,62 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,41; 3,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,74</t>
+          <t>1,02; 3,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,74</t>
+          <t>1,47; 3,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,0</t>
+          <t>1,29; 4,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,65; 4,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,79</t>
+          <t>6,19; 9,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,09</t>
+          <t>1,07; 3,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,47</t>
+          <t>1,57; 3,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 3,13</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 3,65</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 6,13</t>
+          <t>4,13; 6,17</t>
         </is>
       </c>
     </row>
@@ -1076,60 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,12%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>10,5%</t>
         </is>
@@ -1144,62 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,0; 4,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,29</t>
+          <t>2,57; 3,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,78</t>
+          <t>5,09; 7,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 7,6</t>
+          <t>8,33; 10,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,01; 10,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 10,31</t>
+          <t>11,37; 15,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 10,05</t>
+          <t>5,87; 7,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 15,43</t>
+          <t>5,46; 6,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 7,12</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 6,74</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>9,04; 11,43</t>
+          <t>9,22; 11,42</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1069,809 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cinco o más enfermedades crónicas de las que al menos una es limitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>90267</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>59614</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>105379</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>254826</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>196188</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>265780</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>345093</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>255802</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>371159</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72621; 110635</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46210; 74690</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>89421; 121213</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>227015; 287003</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>170411; 224314</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>245797; 287559</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>308357; 381561</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>225175; 286718</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>344582; 400275</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25832</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>35539</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>108625</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>63515</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>104136</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>199953</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>89347</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>139675</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>308578</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17353; 37009</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25625; 50195</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>75684; 131136</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>47878; 82050</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>85078; 127895</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>144983; 234352</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>70350; 112351</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>117911; 165494</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>245458; 354337</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6208</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10937</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15907</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11693</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16311</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>50518</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17901</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27248</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>66425</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1953; 14421</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5585; 20718</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9479; 23700</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5924; 21473</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9064; 26694</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40897; 64330</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10039; 30750</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17253; 40822</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>53963; 80676</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>122307</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>106089</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>229911</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>330034</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>316635</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>516251</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>452341</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>422724</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>746162</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>102545; 148347</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>86909; 128270</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>175782; 263310</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>295958; 368998</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>282941; 353645</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>415294; 565516</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>409661; 496641</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>377100; 464667</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>654889; 811403</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
